--- a/Estado del arte.xlsx
+++ b/Estado del arte.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Camilo Ortiz\Documents\Universidad de Los Andes\Maestría\Tercer Semestre\Tesis 1\estadodelarte\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDE1F2D-B743-46FF-B173-CD76610E7E00}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="256">
   <si>
     <t>Titulo del artículo</t>
   </si>
@@ -347,39 +356,554 @@
   </si>
   <si>
     <t>This lightning talk describes the current effort to distill the essence of the growth of bitcoins, blockchains and their implications to cybersecurity. Crypto currencies are becoming popular with banks, consumers and various industries. There is a need for consumers to understand the basic underlying technology behind these crypto currencies and the underlying security risks and concerns. This talk provides a broad overview of the topic and the benefits/risks involved. This talk also describes how these topics are integrated into a classroom curriculum in a standard business and accounting course found in many universities.</t>
+  </si>
+  <si>
+    <t>blockchain AND (mobile OR android OR ios OR cellphone OR operative system)</t>
+  </si>
+  <si>
+    <t>Inter Blockchain Communication: A survey</t>
+  </si>
+  <si>
+    <t>Ilham A Qasse, Manar Abu Talib, Qassim Nasir</t>
+  </si>
+  <si>
+    <t>Blockchain technology is growing massively where the number of blockchain platforms and decentralized applications are increasing rapidly in the last years. However, most of the existing blockchain networks are operating in a standalone environment isolated from each other, which increases scalability and connectivity issues in the current blockchain platforms as well as limiting the blockchain adoption in industry ecosystems. In the current phase, different blockchain networks don’t have mutual trust where they cannot interact with each other and their capacity level has only reached a level similar to LAN. Due to the high barriers between the independent isolated blockchain platforms, researchers have started to focus on the concept of Blockchain interoperability. Blockchain interoperability is the ability of connecting multiple blockchain networks together, which significantly increases and solves scalability and connectivity issues in the blockchain platforms. Given the potential of blockchain interoperability and cross blockchain communication, many researchers are working on finding the optimal cross blockchain communication solution. As blockchain interoperability is emerging as an essential blockchain feature, the number of proposed blockchain interoperability solutions have been increasing within the last few years. In this paper, a survey of all the available cross blockchain communication solutions are discussed with a comparison of the proposed architectures.</t>
+  </si>
+  <si>
+    <t>March 7 - 9, 2019</t>
+  </si>
+  <si>
+    <t>ArabWIC 2019 Proceedings of the ArabWIC 6th Annual International Conference Research Track</t>
+  </si>
+  <si>
+    <t>A Better Method to Analyze Blockchain Consistency</t>
+  </si>
+  <si>
+    <t>Lucianna Kiffer
+Rajmohan Rajaraman
+Abhi Shelat</t>
+  </si>
+  <si>
+    <t>October 15 - 19, 2018</t>
+  </si>
+  <si>
+    <t>ArabWIC 2019 Proceedings of the ArabWIC 6th Annual International Conference Research Track, Article No. 2</t>
+  </si>
+  <si>
+    <t>CCS '18 Proceedings of the 2018 ACM SIGSAC Conference on Computer and Communications Security</t>
+  </si>
+  <si>
+    <t>2018 ACM SIGSAC Conference on Computer and Communications Security</t>
+  </si>
+  <si>
+    <t>The celebrated Nakamoto consensus protocol [16] ushered in several new consensus applications including cryptocurrencies. A few recent works [7, 17] have analyzed important properties of blockchains, including most significantly, consistency, which is a guarantee that all honest parties output the same sequence of blocks throughout the execution of the protocol. To establish consistency, the prior analysis of Pass, Seeman and Shelat [17] required a careful counting of certain combinatorial events that was difficult to apply to variations of Nakamoto. The work of Garay, Kiayas, and Leonardas [7] provides another method of analyzing the blockchain under the simplifying assumption that the network was synchronous. The contribution of this paper is the development of a simple Markov-chain based method for analyzing consistency properties of blockchain protocols. The method includes a formal way of stating strong concentration bounds as well as easy ways to concretely compute the bounds. We use our new method to answer a number of basic questions about consistency of blockchains: • Our new analysis provides a tighter guarantee on the consistency property of Nakamoto’s protocol, including for parameter regimes which [17] could not consider; • We analyze a family of delaying attacks first presented in [17], and extend them to other protocols; • We analyze how long a participant should wait before considering a high-value transaction “confirmed”; • We analyze the consistency of CliqueChain, a variation of the Chainweb [14] system; • We provide the first rigorous consistency analysis of GHOST [20] and also analyze a folklore “balancing"-attack. In each case, we use our framework to experimentally analyze the consensus bounds for various network delay parameters and adversarial computing percentages. We hope our techniques enable authors of future blockchain proposals to provide a more rigorous analysis of their schemes</t>
+  </si>
+  <si>
+    <t>Exploration on the Application of Blockchain in the Security System of Smart Park</t>
+  </si>
+  <si>
+    <t>Huamming Du
+Junfang Zeng
+Yuguo An
+Jing Zhang
+Jian Zhao</t>
+  </si>
+  <si>
+    <t>July 07.09, 2019</t>
+  </si>
+  <si>
+    <t>IECC '19 Proceedings of the 2019 International Electronics Communication Conference</t>
+  </si>
+  <si>
+    <t>2019 International Electronics Communication Conference</t>
+  </si>
+  <si>
+    <t>How to solve the traditional security system of Smart Park in the centralized management mode, existing access control is copied, easy loss of data, tampering with information and so on. Based on the distributed storage, intelligent contract, non-tampering, traceability and other characteristics of Blockchain technology, this article will go deep into the security business of Smart Park, and solve a series of problems existing in the processes of intelligent management in the Smart Park traditional security system.</t>
+  </si>
+  <si>
+    <t>80% of Block Propagation Rate is Enough - Towards Secure and Efficient PoW-based Blockchain Consensus</t>
+  </si>
+  <si>
+    <t>Daehwa Rayer Lee
+Yunhee Jang
+Hanbin Jang
+Hyoungshick Kim</t>
+  </si>
+  <si>
+    <t>MobiSys '19 Proceedings of the 17th Annual International Conference on Mobile Systems, Applications, and Services</t>
+  </si>
+  <si>
+    <t>Rethinking Permissioned Blockchains</t>
+  </si>
+  <si>
+    <t>Marko Vukolic</t>
+  </si>
+  <si>
+    <t>April 02 -02, 2017</t>
+  </si>
+  <si>
+    <t>BCC '17 Proceedings of the ACM Workshop on Blockchain, Cryptocurrencies and Contracts</t>
+  </si>
+  <si>
+    <t>ACM Workshop on Blockchain, Cryptocurrencies and Contracts</t>
+  </si>
+  <si>
+    <t>Current blockchain platforms, especially the recent permissioned systems, have architectural limitations: smart contracts run sequentially, all node executes all smart contracts, consensus protocols are hard-coded, the trust model is static and not flexible, and non-determinism in smart-contract execution poses serious problems. Overcoming these limitations is critical for improving both functional properties of blockchains, such as confidentiality and consistency, as well as their non-functional properties, such as performance and scalability. We discuss these limitations in the context of permissioned blockchains, including an early version of the Hyperledger Fabric blockchain platform, and how a re-design of Hyperledger Fabric’s architecture addresses them.</t>
+  </si>
+  <si>
+    <t>Blockchain Trilemma Solver Algorand has Dilemma over Undecidable Messages</t>
+  </si>
+  <si>
+    <t>Mauro Conti
+Ankit Gangwal
+Michele Todero</t>
+  </si>
+  <si>
+    <t>August 26 - 29, 2019</t>
+  </si>
+  <si>
+    <t>ARES '19 Proceedings of the 14th International Conference on Availability, Reliability and Security</t>
+  </si>
+  <si>
+    <t>14th International Conference on Availability, Reliability and Security</t>
+  </si>
+  <si>
+    <t>A variety of solutions, e.g., Proof-of-Work (PoW), Proof-of-Stake (PoS), Proof-of-Burn (PoB), and Proof-of-Elapsed-Time (PoET), have been proposed to make consensus mechanism used by the blockchain technology more democratic, efficient, and scalable. However, these solutions have a number of limitations, e.g., PoW approach requires a huge amount of computational power, scales poorly, and wastes a lot of electrical energy. Recently, an innovative protocol called Algorand has been proposed to overcome these limitations. Algorand not only guarantees an overwhelming probability of linearity of the blockchain, but it also aims to solve the “blockchain trilemma” of decentralization, scalability, and security. In this paper, we present a security analysis of Algorand. To the best of our knowledge, it is the first security analysis as well as the first formal study on Algorand. We designed an attack scenario in which a group of malicious users tries to break the protocol, or at least limit it to a reduced partition of network users, by exploiting a security flaw in the messages validation process of the Byzantine Agreement (BA). Since the source code or an official simulator for Algorand was not available at the time of our study, we created a simulator (which is available on request) to implement the protocol and assess the feasibility of our attack scenario. Our attack requires the attacker to merely have the trivial capability of establishing multiple connections with targeted nodes, and it costs practically nothing to the attacker. Our results show that it is possible to slow down the message validation process on honest nodes - which eventually forces them to select default values on the consensus - leaving the targeted nodes behind in the chain as compared to the non-attacked nodes. Even though our results are subject to the real implementation of the protocol, the core concept of our attack remains valid.</t>
+  </si>
+  <si>
+    <t>On Consensus in Public Blockchains</t>
+  </si>
+  <si>
+    <t>Wenbing Zhao
+Shunkun Yang</t>
+  </si>
+  <si>
+    <t>March 15 - 19, 2019</t>
+  </si>
+  <si>
+    <t>ICBCT 2019 Proceedings of the 2019 International Conference on Blockchain Technology</t>
+  </si>
+  <si>
+    <t>2019 International Conference on Blockchain Technology</t>
+  </si>
+  <si>
+    <t>In this paper, we formulate the consensus problem and its solutions as seen in public blockchains and contrast them to those of the traditional distributed consensus. The Proof of Work (PoW) algorithm introduced in Bitcoin provides the first elegant and practical solution for reaching distributed consensus in a largescale untrusted environment. Due to the enormous energy cost of PoW, many alternative consensus algorithms have been proposed for public blockchains aiming at drastically reducing the energy consumption for reaching consensus. We examine four blockchain consensus algorithms, namely Proof of Work, Proof of Stake, Proof of Space, and Proof of Elapsed Time, with respect to the consensus model we have formulated and point out the challenges of adopting them in public blockchains.</t>
+  </si>
+  <si>
+    <t>Graph-Based Computing Resource Allocation for Mobile Blockchain</t>
+  </si>
+  <si>
+    <t>Kobbane Abdellatif
+Charkaoui Abdelmouttalib</t>
+  </si>
+  <si>
+    <t>October 16-19, 2018</t>
+  </si>
+  <si>
+    <t>2018 6th International Conference on Wireless Networks and Mobile Communications (WINCOM)</t>
+  </si>
+  <si>
+    <t>Since it first appears in 2008 as the underlying technology of the Bitcoin payment system, Blockchain has gained further interests, since it offers a distributed peer-to-peer ledger where non-trusting members can interact with each other, in addition, members can now run applications without the need for a central authority with the same level of certainty. however blockchain suffers from certain limitations and challenges, specifically, when combined with Internet of things (iot) infrastructure, namely the high cost needed in the mining process due to restricted computation resources of iot devices, in this paper we will focus on a survey on three of most relevant papers that discuss resources management in mobile blockchain then we we will propose a matching model based on graph theory for optimal resources allocation between services offered by an Edge service provider and demands from miners of a blockchain network.</t>
+  </si>
+  <si>
+    <t>IEEE Xplore</t>
+  </si>
+  <si>
+    <t>Accident Alert System Application Using a Privacy-Preserving Blockchain-Based Incentive Mechanism</t>
+  </si>
+  <si>
+    <t>G. Suriya Praba Devi
+J. C. Miraclin Joyce Pamila</t>
+  </si>
+  <si>
+    <t>March 15-16,2019</t>
+  </si>
+  <si>
+    <t>2019 5th International Conference on Advanced Computing &amp; Communication Systems (ICACCS)</t>
+  </si>
+  <si>
+    <t>In this era of rapid growth of vehicles, the ratio of road accident increases day by day. Nowadays, Traffic incidents are persistent problems in both developed and developing countries which result in huge loss of life and property. No one in this world is ready to gaze what's happening around them. Nobody cares even when an accident occurs. This paper provides an innovative solution by developing an Accident Alert Message System using an Android Smartphone Application that can be used from the accident zone. The application uses GPS technology for location mapping and sends an alert and notification of an accident. The generated accident alert message is endorsed by the nearby registered users who also witness the accident to ensure the increased reputation of the message. Based on the endorsement of the message, the system will instantly transmit the location of the accident to the nearby emergency services. In this case, users usually lack the enthusiasm to generate or endorse alert messages because they might fear that their privacy will be breached. At the same time, users do not benefit from generating or endorsing alert messages which also makes them lack the enthusiasm or motivation to respond to messages. In order to provide a solution to resolve these issues, this paper presents a novel privacy-preserving Blockchain - Based Incentive Mechanism for Accident Alert Message System. The main objective of the paper is to encourage the users to generate and endorse accident alert messages from the accident zone without revealing the user's identity. Also, some incentives to the users are paid to the message generators and endorsers and the transactions get stored based on the Blockchain technology; hence the privacy of the user is preserved. Our proposed system ensures the reliability of alert messages without revealing the privacy of the user and is reliable and efficient in the non-fully-trusted environment.</t>
+  </si>
+  <si>
+    <t>A blockchain based mobile crowdsensing market</t>
+  </si>
+  <si>
+    <t>Xin Wei
+Yong Yan
+Wei Jiang
+Jing Shen
+Xuesong Qiu</t>
+  </si>
+  <si>
+    <t>July 02-02, 2019</t>
+  </si>
+  <si>
+    <t>China Communications</t>
+  </si>
+  <si>
+    <t>Mobile crowdsensing(MCS) is an emerging pattern which means task initiators attract mobile users sensing with their own devices by some platforms. MCS could exploit idle resources in low cost, while it has lots of flaws, which impede its developments. First, isolations between different MCS systems leads to wastage of social resources. What's more, current MCS always operate in a centralized way, which causes it vulnerable and unbelievable. Blockchain is a promising technology which could supply a credible and transparent environment. This paper construct a blockchain based MCS market and design smart contract for its operation. In our design, platform breaks isolation by blockchain, task initiators and mobile users manage their tasks by smart contract and bargain price with distributed algorithm. By this way, resource could be exploited better, and the market could be more fair. What's more, the paper analyzes Walrasian Equilibrium (WE) in the market, and details how to deploy MCS in blockchain. Evalution results shows that Equilibrium could be found.</t>
+  </si>
+  <si>
+    <t>A security architecture of VANET based on blockchain and mobile edge computing</t>
+  </si>
+  <si>
+    <t>XiaoDong Zhang
+Ru Li
+Bo Cui</t>
+  </si>
+  <si>
+    <t>August 15-17, 2018</t>
+  </si>
+  <si>
+    <t>2018 1st IEEE International Conference on Hot Information-Centric Networking (HotICN)</t>
+  </si>
+  <si>
+    <t>The development of Vehicular Ad-hoc NETwork (VANET) has brought many conveniences to human beings, but also brings a very prominent security problem. The traditional solution to the security problem is based on centralized approach which requires a trusted central entity which exists a single point of failure problem. Moreover, there is no approach of technical level to ensure security of data. Therefore, this paper proposes a security architecture of VANET based on blockchain and mobile edge computing. The architecture includes three layers, namely perception layer, edge computing layer and service layer. The perception layer ensures the security of VANET data in the transmission process through the blockchain technology. The edge computing layer provides computing resources and edge cloud services to the perception layer. The service layer uses the combination of traditional cloud storage and blockchain to ensure the security of data.</t>
+  </si>
+  <si>
+    <t>The Design of a Mobile Number Portability System on a Permissioned Private Blockchain Platform</t>
+  </si>
+  <si>
+    <t>Dilip Krishnaswamy
+Kanchan Chauhan
+Aayush Bhatnagar
+Shailesh Jha
+Shobhit Sribastava
+Dipender Bhamrah
+Manish Prasad</t>
+  </si>
+  <si>
+    <t>May 14-17, 2019</t>
+  </si>
+  <si>
+    <t>2019 IEEE International Conference on Blockchain and Cryptocurrency (ICBC)</t>
+  </si>
+  <si>
+    <t>This paper discusses the design of a mobile number portability processing system in the telecom domain with a solution proposed using permissioned private blockchain technology. As a first step, the system is designed to be managed by a neutral entity. Subsequently, the design is extended to be supported by a neutral blockchain-based platform. The Hyperledger Fabric blockchain platform is used as the framework to develop the solution. Channels are utilized for different subsets of nodes that interact with each other to enable transactions in the system. Concurrent state transition graph paths are utilized to enable faster processing in the blockchain system. The paper concludes with experimental results and possibilities for future extensions.</t>
+  </si>
+  <si>
+    <t>Jupiter: A Blockchain Platform for Mobile Devices</t>
+  </si>
+  <si>
+    <t>Siyuan Han
+Zihuan Xu
+Lei Chen</t>
+  </si>
+  <si>
+    <t>April 16-19, 2018</t>
+  </si>
+  <si>
+    <t>2018 IEEE 34th International Conference on Data Engineering (ICDE)</t>
+  </si>
+  <si>
+    <t>With the success of Bitcoin, the technique behind it, Blockchain, is catching massive attention recently. Blockchain is a collection of several techniques like cryptology, P2P and distributed consensus protocol. The main idea of Blockchain is that nodes in the network keep the same distributed ledger. Because of this immutable ledger, a trusted bridge is built among parties without fully trust. Blockchain can be used in variety of areas, especially in financial fields, like supply chain management, cross-border payment and global bank settlement. Meanwhile, we can observe that mobile network is growing rapidly and nibbling the PC market. However, the current public Blockchain applications like Bitcoin or Ethereum require the nodes to store the whole ledger which exceeds the capacity of the mobile devices. Thus, we need to develop a blockchain platform to support mobile devices. In this demo, we introduce Jupiter, a mobile-based Blockchain platform which provides a novel concept called consensus unit (CU) to alleviate the storage problem of mobile. We present the system architecture and demonstrate several CU scenarios via Jupiter.</t>
+  </si>
+  <si>
+    <t>Integrating Blockchain Technology for Data Collection and Analysis in Wireless Sensor Networks with an Innovative Implementation</t>
+  </si>
+  <si>
+    <t>Shun-Yuan Wang
+Yun-Jung Hsu
+Sung-Jung Hsiao</t>
+  </si>
+  <si>
+    <t>December 6-8, 2018</t>
+  </si>
+  <si>
+    <t>2018 International Symposium on Computer, Consumer and Control (IS3C)</t>
+  </si>
+  <si>
+    <t>The study integrates blockchain technology which treats each mobile database as a block. Each block will first detect its own range of sensor data. The system then concatenates the sensor data for each block through the blockchain technology. In addition to their own measurement data, these concatenated sensor data also contain all the sensor data of the previous block. Therefore, when the system completes the connection of each block, each block node stores the sensor data of the entire wireless network. Mobile database is placed in an embedded hardware module like the Raspberry Pi. This module also establishes web server at the same time. The setting of this mobile web server is based on the Web of Things (WoT) structure. The advantage of this mobile database is easy information collection, while maintaining confidentiality and security. This mobile web server can draw figures with multiple chart types on the web page whilst delivering these web pages of charts to the cloud. The mobile web server is also built on the same embedded hardware module, and even the system can be a private cloud data center. The proposed system will visualize the data uploaded by these sensors and draw the relevant chart after performing big data analysis. This web page server of the system is built on an embedded operating system so that it is easy for the system to model and visualize the corresponding graphics using the Python or JavaScript programming language.</t>
+  </si>
+  <si>
+    <t>A Small Java Application for Learning Blockchain</t>
+  </si>
+  <si>
+    <t>Xing Liu</t>
+  </si>
+  <si>
+    <t>November 1-3, 2018</t>
+  </si>
+  <si>
+    <t>2018 IEEE 9th Annual Information Technology, Electronics and Mobile Communication Conference (IEMCON)</t>
+  </si>
+  <si>
+    <t>This paper introduces a small Java application named ChainTutor for learning basic Blockchain concepts. Although the term Blockchain is widely known and Blockchain technologies are finding applications in various areas such as banking, health care and Internet of Things, some concepts of Blockchain are not easy for beginners to understand. Fully text-based tutorials are often difficult to follow. General picture of Blockchain operations gets lost in lengthy textual descriptions. With the Java application introduced in this paper, users can experiment with key Blockchain concepts through a graphical user interface. They can generate keys, hashes, transactions, blocks and wallets. They can see the low level details of a blockchain such as encryption keys and hashes. They can see how mining works and how blocks are added to a blockchain. Parameters of a blockchain can also be varied in order to observe their impact on performance or even to make a blockchain invalid. The Java application is intended to be used in classroom environment by instructors when they teach introductory Blockchain courses.</t>
+  </si>
+  <si>
+    <t>Mobile charger billing system using lightweight Blockchain</t>
+  </si>
+  <si>
+    <t>Nam Ho Kim
+Sum Moo Kang
+Choong Seon Hong</t>
+  </si>
+  <si>
+    <t>September 27-29, 2017</t>
+  </si>
+  <si>
+    <t>2017 19th Asia-Pacific Network Operations and Management Symposium (APNOMS)</t>
+  </si>
+  <si>
+    <t>Green transportation such as electric vehicles are emerging as an alternative to the traditional vehicles primarily due to the increasing cost and need of petroleum energy worldwide. These electric vehicle operate by using electric charging and the way to charge an electric car is to use a mobile charger or use a charging infrastructure. Therefore, when a mobile charger is used, a billing system is required through which a user is billed who has charged the electric vehicle. In this paper, we propose a mobile charger billing system that utilizes Blockchain technology. This technology has been applied to achieve more secure online transactions in a peer-to-peer manner. Moreover, we analyze the requirements of mobile charger for billing and propose a lightweight scheme that can overcome the challenge of data size in existing Blockchain.</t>
+  </si>
+  <si>
+    <t>ChainMOB: Mobility Analytics on Blockchain</t>
+  </si>
+  <si>
+    <t>Bulat Nasrulin
+Muhammad Muzammal
+Qiang Qu</t>
+  </si>
+  <si>
+    <t>June 25-28,2018</t>
+  </si>
+  <si>
+    <t>2018 19th IEEE International Conference on Mobile Data Management (MDM)</t>
+  </si>
+  <si>
+    <t>Mobile devices generate massive amounts of data that is used to get an insight into the user behavior by enterprise systems. Data privacy is a concern in such systems as users have little control over the data that is generated by them. Blockchain systems offer ways to ensure privacy and security of the user data with the implementation of an access control mechanism. In this demonstration, we present ChainMOB, a mobility analytics application that is built on top of blockchain and addresses the fundamental privacy and security concerns in enterprise systems. Further, the extent of data sharing along with the intended audience is also controlled by the user. Another exciting feature is that user is part of the business model and is incentivized for sharing the personal mobility data. The system also supports queries that can be used in a variety of application domains.</t>
+  </si>
+  <si>
+    <t>An alternative approach to blockchain mining work for making blockchain technologies fit to ubiquitous and mobile computing environments</t>
+  </si>
+  <si>
+    <t>Yuki Kano
+Tatsuo Nakajima</t>
+  </si>
+  <si>
+    <t>October 3-5, 2017</t>
+  </si>
+  <si>
+    <t>2017 Tenth International Conference on Mobile Computing and Ubiquitous Network (ICMU)</t>
+  </si>
+  <si>
+    <t>The mining work concentration problem, whereby machine power is monopolized when supporting its operation, is becoming a serious problem in virtual currency using the blockchain technology that has drawn significant attention in recent years. The paper presents a new solution to solve the problem by using a simple virtual currency service that allows a user to operate the service by giving the user a new incentive based on gamification, not traditional economic incentives. We conducted experiments that show the feasibility of adopting the alternative incentive.</t>
+  </si>
+  <si>
+    <t>Next Generation Blockchain Network (NGBN)</t>
+  </si>
+  <si>
+    <t>Zhibin Lei
+Chao Feng
+Yang Liu
+Dennis S.F. Lee
+Tony Tsang
+Jun Liang
+Zhijun Xiong
+Yuquan Liu
+Gang Chen</t>
+  </si>
+  <si>
+    <t>June 10-13,2019</t>
+  </si>
+  <si>
+    <t>2019 20th IEEE International Conference on Mobile Data Management (MDM)</t>
+  </si>
+  <si>
+    <t>A disruptive revolution is forming for the blockchain based communication network framework with end-to-end P2P based architecture of distributed computation, storage, and networking paradigm - the Next Generation Blockchain Network (NGBN). The core theme of NGBN is to push up communication PHY layer and push down application layer (e.g. storage and computation) to converge on a single networking layer - called Blockchain Network Layer (BNL) - such that blockchain token economy can be efficiently implemented to support an end-to-end P2P mesh network with unlimitedly scalable, available to everyone, and expandable by peer nodes' joining openly, robust and secure network environment for all the IoT, big data, AI applications to be coming in the next 10 years. To achieve this goal, a joint effort is needed to pull together various resources, including network resources, communication resources, application and chip level support, software and system, and initial proof of concept trials for the end-to-end deployment.</t>
+  </si>
+  <si>
+    <t>Consortium Blockchain-Based Malware Detection in Mobile Devices</t>
+  </si>
+  <si>
+    <t>Jingjing Gu
+Binglin Sun
+Xiaojiang Du
+Jun Wang
+Yi Zhuang
+Ziwang Wang</t>
+  </si>
+  <si>
+    <t>February 13 - 13, 2018</t>
+  </si>
+  <si>
+    <t>IEEE Access</t>
+  </si>
+  <si>
+    <t>To address the problem of detecting malicious codes in malware and extracting the corresponding evidences in mobile devices, we construct a consortium blockchain framework, which is composed of a detecting consortium chain shared by test members and a public chain shared by users. Specifically, in view of different malware families in Android-based system, we perform feature modeling by utilizing statistical analysis method, so as to extract malware family features, including software package feature, permission and application feature, and function call feature. Moreover, for reducing false-positive rate and improving the detecting ability of malware variants, we design a multi-feature detection method of Android-based system for detecting and classifying malware. In addition, we establish a fact-base of distributed Android malicious codes by blockchain technology. The experimental results show that, compared with the previously published algorithms, the new proposed method can achieve higher detection accuracy in limited time with lower false-positive and false-negative rates.</t>
+  </si>
+  <si>
+    <t>Dynamic and Privacy-Preserving Reputation Management for Blockchain-Based Mobile Crowdsensing</t>
+  </si>
+  <si>
+    <t>Ke Zhao
+Shaohua Tang
+Bowen Zhao
+Yiming Wu</t>
+  </si>
+  <si>
+    <t>June 05-05, 2019</t>
+  </si>
+  <si>
+    <t>Mobile crowdsensing (MCS) is an emerging data collection paradigm that exploits the potential of individual mobile devices to acquire mass data in a cost-effective manner. One of the important challenges in MCS application is to resist malicious users who provide false data to disturb the system. In the existing work, the reputation management scheme is an effective way to overcome the challenge. However, most reputation management schemes rely on a semi-honest server and process data in the plaintext domain without considering server security and user privacy. In this paper, we integrate the blockchain and edge computing in the MCS scenario to construct a credible and efficient blockchain-based MCS system, called BC-MCS. To resist malicious users, we present a privacy-preserving reputation management scheme based on the proposed system. Furthermore, we design a delegation protocol to solve the inherent problem of user dynamics in the MCS. The prototype system implemented on the Hyperledger Sawtooth and Android client demonstrates that our scheme can achieve higher utility and security levels in handling malicious users compared with the previous centralized reputation management schemes.</t>
+  </si>
+  <si>
+    <t>Rewarding device-to-device content dissemination using Proof-of-Prestige</t>
+  </si>
+  <si>
+    <t>Michal Krol
+Sergi Reñe
+Arnold Cheung
+Ioannis Psaras</t>
+  </si>
+  <si>
+    <t>May 14-17,2019</t>
+  </si>
+  <si>
+    <t>This demo shows an implementation of a device-to-device data dissemination system for mobile phones. We develop and Android application allowing users to exchange content and collects rewards for transfers using Proof of Prestige scheme deployed on Ethereum blockchain. To interact with the system, mobile devices require to store uniquely their public and private keys reducing the memory footprint. Our implementation inherits blockchain security features and remains resistant to Sybil and collude attacks. We make our application available on Google Play Store for public use.</t>
+  </si>
+  <si>
+    <t>Online Deep Reinforcement Learning for Computation Offloading in Blockchain-Empowered Mobile Edge Computing</t>
+  </si>
+  <si>
+    <t>Xiaoyu Qiu
+Luobin Liu
+Wuhui Chen
+Zicong Hong
+Zibin Zheng</t>
+  </si>
+  <si>
+    <t>June 20 2019</t>
+  </si>
+  <si>
+    <t>IEEE Transactions on Vehicular Technology ( Volume: 68 , Issue: 8 , Aug. 2019 )</t>
+  </si>
+  <si>
+    <t>Offloading computation-intensive tasks (e.g., blockchain consensus processes and data processing tasks) to the edge/cloud is a promising solution for blockchain-empowered mobile edge computing. However, the traditional offloading approaches (e.g., auction-based and game-theory approaches) fail to adjust the policy according to the changing environment and cannot achieve long-term performance. Moreover, the existing deep reinforcement learning-based offloading approaches suffer from the slow convergence caused by high-dimensional action space. In this paper, we propose a new model-free deep reinforcement learning-based online computation offloading approach for blockchain-empowered mobile edge computing in which both mining tasks and data processing tasks are considered. First, we formulate the online offloading problem as a Markov decision process by considering both the blockchain mining tasks and data processing tasks. Then, to maximize long-term offloading performance, we leverage deep reinforcement learning to accommodate highly dynamic environments and address the computational complexity. Furthermore, we introduce an adaptive genetic algorithm into the exploration of deep reinforcement learning to effectively avoid useless exploration and speed up the convergence without reducing performance. Finally, our experimental results demonstrate that our algorithm can converge quickly and outperform three benchmark policies.</t>
+  </si>
+  <si>
+    <t>How blockchain technologies impact your business model</t>
+  </si>
+  <si>
+    <t>Vida J. Morkunas
+Jeannette Paschen
+Edward Boon</t>
+  </si>
+  <si>
+    <t>May-June 2019</t>
+  </si>
+  <si>
+    <t>Business Horizons</t>
+  </si>
+  <si>
+    <t>Much of the attention surrounding blockchain today is focused on financial services, with very little discussion about nonfinancial services firms and how blockchain technology may affect organizations, their business models, and how they create and deliver value. In addition, some confusion remains between the blockchain (with definite article) and blockchain (no article), distributed ledger technologies, and their applications. Our article offers a primer on blockchain technology aimed at general managers and executives. The key contributions of this article lie in providing an explanation of blockchain, including how a blockchain transaction works and a clarification of terms, and outlining different types of blockchain technologies. We also discuss how different types of blockchain impact business models. Building on the well-established business model framework by Osterwalder and Pigneur, we outline the effect that blockchain technologies can have on each element of the business model, along with illustrations from firms developing blockchain technology.</t>
+  </si>
+  <si>
+    <t>ScienceDirect</t>
+  </si>
+  <si>
+    <t>Blockchain data-based cloud data integrity protection mechanism</t>
+  </si>
+  <si>
+    <t>PengCheng Wei
+Dahu Wang
+Yu Zhao
+Sumarga Kumar Sah Tyagi
+Neeraj Kumar</t>
+  </si>
+  <si>
+    <t>September 14 2019</t>
+  </si>
+  <si>
+    <t>Future Generation Computer Systems</t>
+  </si>
+  <si>
+    <t>Despite the rapid development of cloud computing for many years, data security and trusted computing are still the main challenges in current cloud computing applications. In order to solve this problem, many scholars have carried out a lot of research on this, and proposed many models including data integrity test and secure multi-party calculation. However, most of these solutions face problems such as excessive computational complexity or lack of scalability. This paper studies the use of blockchain techniques to improve this situation. Blockchain is a decentralized new distributed computing paradigm. Applying blockchain technology to cloud computing, using the security mechanism of the former to improve the performance of the latter’s secure storage and secure computing is a promising research topic. In this paper, the distributed virtual machine agent model is deployed in the cloud by using mobile agent technology. The virtual machine agent enables multi-tenants to cooperate with each other to ensure data trust verification. The tasks of reliable data storage, monitoring and verification are completed by virtual machine agent mechanism. This is also a necessary condition for building a blockchain integrity protection mechanism. The blockchain-based integrity protection framework is built by the virtual machine proxy model, and the unique hash value corresponding to the file generated by the Merkel hash tree is used to monitor the data change by means of the smart contract on the blockchain, and the data is owned in time. The user issues a warning message for data tampering; in addition, a “block-and-response” mode is used to construct a blockchain-based cloud data integrity verification scheme.</t>
+  </si>
+  <si>
+    <t>Blockchain for smart communities: Applications, challenges and opportunities</t>
+  </si>
+  <si>
+    <t>Shubhani Aggarwal
+Rajat Chaudhary
+Gagangeet Singh Aujla
+Neeraj Kumar
+Kim-Kwang Raymond Choo
+Albert Y. Zomaya</t>
+  </si>
+  <si>
+    <t>June 27 2019</t>
+  </si>
+  <si>
+    <t>Journal of Network and Computer Applications</t>
+  </si>
+  <si>
+    <t>Since the success of Bitcoin, there have been increased focus of studying the application of blockchain in a broad range of applications, such as in solutions facilitating identity privacy and transaction security using a decentralized architecture via different consensus mechanisms (e.g. proof-of-work) between different geo-located IoT devices/nodes in our increasingly digitalized society (e.g. smart city). In this paper, we survey the usage of blockchain technology for smart communities, focusing on key components of the blockchain applications. We also study the various process models used in the execution of secure transactions. Specifically, we present a detailed taxonomy on the applications, process models used, and communication infrastructure support needed to execute various applications.</t>
+  </si>
+  <si>
+    <t>On the use of Blockchain technologies in WiFi networks</t>
+  </si>
+  <si>
+    <t>Alberto Attilio Brincat
+Alfio Lombardo
+Giacomo Morabito
+Salvatore Quattropani</t>
+  </si>
+  <si>
+    <t>July 7 2019</t>
+  </si>
+  <si>
+    <t>Computer Networks</t>
+  </si>
+  <si>
+    <t>Recently, Blockchain technology has been the focus of large research efforts spanning several application domains. Use of Blockchain has been proposed in wireless networks as well. In this paper an overview will be presented of the existing literature about the application of Blockchain in wireless access networks. Then, focus will be put on two distinct uses of Blockchain: i) application of Blockchain for providing anonymous access control to wireless access networks; ii) exploitation of the proof-of-work (a key component of Blockchain) as a mechanism for congestion avoidance replacing exponential backoff when network traffic load is high. Application of Blockchanin mechanisms in the two above cases will be investigated critically. The analysis carried out in the paper shows that, even if there are several technical issues that must be solved yet, the application of Blockchain mechanisms in wireless access networks is very promising.</t>
+  </si>
+  <si>
+    <t>MCS-Chain: Decentralized and trustworthy mobile crowdsourcing based on blockchain</t>
+  </si>
+  <si>
+    <t>Wei Feng
+Zheng Yan</t>
+  </si>
+  <si>
+    <t>January 13 2019</t>
+  </si>
+  <si>
+    <t>Mobile Crowdsourcing (MCS) is an effective and novel method of data collection and processing. Current MCS generally adopts a centralized architecture by depending on an assumed trusted party. This design easily suffers from single-point failure and cannot be realized in practice since a trusted service provider does not really exist. More dangerously, the centralized party may perform dishonestly and thus harms the benefit and privacy of MCS users. To tackle these problems, we propose a novel blockchain-based MCS system, named MCS-Chain, to realize fully distributed and decentralized trust management in MCS. Aiming at improving the poor efficiency of traditional blockchain technology, we propose a novel consensus mechanism for block generation, which greatly reduces computational overhead. The proposed MCS-Chain system also solves the fork issue and centralization problem suffered by most existing blockchain-based systems. Serious security analysis and experimental evaluation further illustrate the security and efficiency of our system.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="mmm. d, yyyy"/>
-    <numFmt numFmtId="165" formatCode="d mmmm yyyy"/>
+    <numFmt numFmtId="164" formatCode="mmm\.\ d\,\ yyyy"/>
+    <numFmt numFmtId="165" formatCode="d\ mmmm\ yyyy"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -387,67 +911,90 @@
         <bgColor rgb="FF93C47D"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="17">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -637,29 +1184,34 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="B2:I55"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="31.29"/>
-    <col customWidth="1" min="3" max="3" width="21.71"/>
-    <col customWidth="1" min="4" max="4" width="20.43"/>
-    <col customWidth="1" min="5" max="5" width="24.29"/>
-    <col customWidth="1" min="6" max="6" width="25.86"/>
-    <col customWidth="1" min="7" max="7" width="110.29"/>
-    <col customWidth="1" min="8" max="8" width="19.71"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" customWidth="1"/>
+    <col min="6" max="6" width="25.88671875" customWidth="1"/>
+    <col min="7" max="7" width="110.33203125" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -685,7 +1237,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="2:9" ht="132" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
@@ -711,7 +1263,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="2:9" ht="79.2" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
@@ -737,7 +1289,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="2:9" ht="105.6" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>22</v>
       </c>
@@ -763,7 +1315,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="2:9" ht="105.6" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>28</v>
       </c>
@@ -789,7 +1341,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="2:9" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>34</v>
       </c>
@@ -815,7 +1367,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="2:9" ht="66" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>40</v>
       </c>
@@ -841,7 +1393,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="2:9" ht="92.4" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>46</v>
       </c>
@@ -867,7 +1419,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="2:9" ht="224.4" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>49</v>
       </c>
@@ -875,7 +1427,7 @@
         <v>50</v>
       </c>
       <c r="D10" s="4">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>51</v>
@@ -890,7 +1442,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="2:9" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>54</v>
       </c>
@@ -898,7 +1450,7 @@
         <v>55</v>
       </c>
       <c r="D11" s="7">
-        <v>42203.0</v>
+        <v>42203</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>56</v>
@@ -914,7 +1466,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="2:9" ht="105.6" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>58</v>
       </c>
@@ -940,7 +1492,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="2:9" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>64</v>
       </c>
@@ -966,59 +1518,59 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14">
-      <c r="B14" s="3" t="s">
+    <row r="14" spans="2:9" ht="118.8" x14ac:dyDescent="0.25">
+      <c r="B14" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="9">
-        <v>43326.0</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="15">
+        <v>43326</v>
+      </c>
+      <c r="E14" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="13" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15">
-      <c r="B15" s="3" t="s">
+    <row r="15" spans="2:9" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="B15" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="13" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="2:9" ht="79.2" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>81</v>
       </c>
@@ -1044,7 +1596,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="2:9" ht="92.4" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>88</v>
       </c>
@@ -1070,7 +1622,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="2:9" ht="92.4" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>94</v>
       </c>
@@ -1083,422 +1635,853 @@
       <c r="E18" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="H18" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="I18" s="11" t="s">
+      <c r="I18" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19">
-      <c r="B19" s="10" t="s">
+    <row r="19" spans="2:9" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="B19" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="H19" s="11" t="s">
+      <c r="H19" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="I19" s="11" t="s">
+      <c r="I19" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20">
-      <c r="B20" s="11" t="s">
+    <row r="20" spans="2:9" ht="66" x14ac:dyDescent="0.25">
+      <c r="B20" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="H20" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="I20" s="11" t="s">
+      <c r="I20" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21">
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-    </row>
-    <row r="22">
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-    </row>
-    <row r="23">
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-    </row>
-    <row r="25">
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-    </row>
-    <row r="26">
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-    </row>
-    <row r="27">
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-    </row>
-    <row r="28">
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-    </row>
-    <row r="29">
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-    </row>
-    <row r="30">
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-    </row>
-    <row r="31">
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-    </row>
-    <row r="32">
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-    </row>
-    <row r="33">
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-    </row>
-    <row r="34">
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-    </row>
-    <row r="35">
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-    </row>
-    <row r="36">
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-    </row>
-    <row r="37">
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-    </row>
-    <row r="38">
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-    </row>
-    <row r="39">
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-    </row>
-    <row r="40">
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-    </row>
-    <row r="41">
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-    </row>
-    <row r="42">
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-    </row>
-    <row r="43">
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-    </row>
-    <row r="44">
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-    </row>
-    <row r="45">
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-    </row>
-    <row r="46">
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-    </row>
-    <row r="47">
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-    </row>
-    <row r="48">
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-    </row>
-    <row r="49">
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
-    </row>
-    <row r="50">
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
-    </row>
-    <row r="51">
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
-    </row>
-    <row r="52">
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
-    </row>
-    <row r="53">
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
-    </row>
-    <row r="54">
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
-    </row>
-    <row r="55">
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
+    <row r="21" spans="2:9" ht="158.4" x14ac:dyDescent="0.25">
+      <c r="B21" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="211.2" x14ac:dyDescent="0.25">
+      <c r="B22" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="66" x14ac:dyDescent="0.25">
+      <c r="B23" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="66" x14ac:dyDescent="0.25">
+      <c r="B24" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="B25" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="198" x14ac:dyDescent="0.25">
+      <c r="B26" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="B27" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="105.6" x14ac:dyDescent="0.25">
+      <c r="B28" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="211.2" x14ac:dyDescent="0.25">
+      <c r="B29" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="118.8" x14ac:dyDescent="0.25">
+      <c r="B30" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="I30" s="14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="105.6" x14ac:dyDescent="0.25">
+      <c r="B31" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="B32" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="118.8" x14ac:dyDescent="0.25">
+      <c r="B33" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="I33" s="14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" ht="158.4" x14ac:dyDescent="0.25">
+      <c r="B34" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="I34" s="14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" ht="118.8" x14ac:dyDescent="0.25">
+      <c r="B35" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="B36" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="I36" s="12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="B37" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="I37" s="14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" ht="66" x14ac:dyDescent="0.25">
+      <c r="B38" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" ht="118.8" x14ac:dyDescent="0.25">
+      <c r="B39" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" ht="118.8" x14ac:dyDescent="0.25">
+      <c r="B40" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="F40" s="11"/>
+      <c r="G40" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="I40" s="12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" ht="132" x14ac:dyDescent="0.25">
+      <c r="B41" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="F41" s="11"/>
+      <c r="G41" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" ht="66" x14ac:dyDescent="0.25">
+      <c r="B42" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="I42" s="12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" ht="158.4" x14ac:dyDescent="0.25">
+      <c r="B43" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="I43" s="12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" ht="118.8" x14ac:dyDescent="0.25">
+      <c r="B44" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="F44" s="11"/>
+      <c r="G44" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="I44" s="12" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" ht="184.8" x14ac:dyDescent="0.25">
+      <c r="B45" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="F45" s="11"/>
+      <c r="G45" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="I45" s="12" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="B46" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="F46" s="11"/>
+      <c r="G46" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="I46" s="12" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" ht="105.6" x14ac:dyDescent="0.25">
+      <c r="B47" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="F47" s="11"/>
+      <c r="G47" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="I47" s="12" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" ht="118.8" x14ac:dyDescent="0.25">
+      <c r="B48" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="F48" s="11"/>
+      <c r="G48" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="I48" s="12" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+    </row>
+    <row r="50" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+    </row>
+    <row r="51" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+    </row>
+    <row r="52" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+    </row>
+    <row r="53" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+    </row>
+    <row r="54" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+    </row>
+    <row r="55" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Estado del arte.xlsx
+++ b/Estado del arte.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Camilo Ortiz\Documents\Universidad de Los Andes\Maestría\Tercer Semestre\Tesis 1\estadodelarte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDE1F2D-B743-46FF-B173-CD76610E7E00}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB367EC-9010-43C4-8645-990B1C9F5ED2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7932" yWindow="4320" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="259">
   <si>
     <t>Titulo del artículo</t>
   </si>
@@ -861,6 +861,15 @@
   </si>
   <si>
     <t>Mobile Crowdsourcing (MCS) is an effective and novel method of data collection and processing. Current MCS generally adopts a centralized architecture by depending on an assumed trusted party. This design easily suffers from single-point failure and cannot be realized in practice since a trusted service provider does not really exist. More dangerously, the centralized party may perform dishonestly and thus harms the benefit and privacy of MCS users. To tackle these problems, we propose a novel blockchain-based MCS system, named MCS-Chain, to realize fully distributed and decentralized trust management in MCS. Aiming at improving the poor efficiency of traditional blockchain technology, we propose a novel consensus mechanism for block generation, which greatly reduces computational overhead. The proposed MCS-Chain system also solves the fork issue and centralization problem suffered by most existing blockchain-based systems. Serious security analysis and experimental evaluation further illustrate the security and efficiency of our system.</t>
+  </si>
+  <si>
+    <t>Prioridad</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Alta</t>
   </si>
 </sst>
 </file>
@@ -1194,10 +1203,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B2:I55"/>
+  <dimension ref="B2:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1211,7 +1220,7 @@
     <col min="8" max="8" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1236,8 +1245,11 @@
       <c r="I2" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="2:9" ht="132" x14ac:dyDescent="0.25">
+      <c r="J2" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="132" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
@@ -1262,8 +1274,11 @@
       <c r="I3" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="J3" s="11" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="79.2" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
@@ -1288,8 +1303,11 @@
       <c r="I4" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" ht="105.6" x14ac:dyDescent="0.25">
+      <c r="J4" s="11" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="105.6" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>22</v>
       </c>
@@ -1314,8 +1332,11 @@
       <c r="I5" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" ht="105.6" x14ac:dyDescent="0.25">
+      <c r="J5" s="11" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="105.6" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>28</v>
       </c>
@@ -1340,8 +1361,11 @@
       <c r="I6" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" ht="145.19999999999999" x14ac:dyDescent="0.25">
+      <c r="J6" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>34</v>
       </c>
@@ -1367,7 +1391,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="66" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" ht="66" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>40</v>
       </c>
@@ -1393,7 +1417,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" ht="92.4" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>46</v>
       </c>
@@ -1419,7 +1443,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="224.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" ht="224.4" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>49</v>
       </c>
@@ -1442,7 +1466,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="145.19999999999999" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>54</v>
       </c>
@@ -1466,7 +1490,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" ht="105.6" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>58</v>
       </c>
@@ -1492,7 +1516,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="145.19999999999999" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>64</v>
       </c>
@@ -1518,7 +1542,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" ht="118.8" x14ac:dyDescent="0.25">
       <c r="B14" s="13" t="s">
         <v>70</v>
       </c>
@@ -1544,7 +1568,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" ht="92.4" x14ac:dyDescent="0.25">
       <c r="B15" s="13" t="s">
         <v>75</v>
       </c>
@@ -1570,7 +1594,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" ht="79.2" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>81</v>
       </c>

--- a/Estado del arte.xlsx
+++ b/Estado del arte.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Camilo Ortiz\Documents\Universidad de Los Andes\Maestría\Tercer Semestre\Tesis 1\estadodelarte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB367EC-9010-43C4-8645-990B1C9F5ED2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F520D3BC-0C5F-4DAF-B177-9CD777B2B686}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7932" yWindow="4320" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9720" yWindow="3600" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="260">
   <si>
     <t>Titulo del artículo</t>
   </si>
@@ -870,6 +870,9 @@
   </si>
   <si>
     <t>Alta</t>
+  </si>
+  <si>
+    <t>Baja</t>
   </si>
 </sst>
 </file>
@@ -1205,8 +1208,8 @@
   </sheetPr>
   <dimension ref="B2:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1390,6 +1393,9 @@
       <c r="I7" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="J7" s="11" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="8" spans="2:10" ht="66" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
@@ -1443,7 +1449,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="224.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" ht="237.6" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>49</v>
       </c>
@@ -1466,7 +1472,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="145.19999999999999" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" ht="158.4" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>54</v>
       </c>

--- a/Estado del arte.xlsx
+++ b/Estado del arte.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Camilo Ortiz\Documents\Universidad de Los Andes\Maestría\Tercer Semestre\Tesis 1\estadodelarte\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ca.ortiz1633\Documents\Personal\Tesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F520D3BC-0C5F-4DAF-B177-9CD777B2B686}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9720" yWindow="3600" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9720" yWindow="3600" windowWidth="23040" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="262">
   <si>
     <t>Titulo del artículo</t>
   </si>
@@ -874,11 +873,17 @@
   <si>
     <t>Baja</t>
   </si>
+  <si>
+    <t>Media/Baja</t>
+  </si>
+  <si>
+    <t>Media/Alta</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mmm\.\ d\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="d\ mmmm\ yyyy"/>
@@ -1202,28 +1207,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="B2:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="F28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" customWidth="1"/>
-    <col min="6" max="6" width="25.88671875" customWidth="1"/>
-    <col min="7" max="7" width="110.33203125" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" customWidth="1"/>
+    <col min="6" max="6" width="25.85546875" customWidth="1"/>
+    <col min="7" max="7" width="110.28515625" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1252,7 +1257,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="132" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" ht="127.5" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
@@ -1281,7 +1286,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" ht="76.5" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
@@ -1310,7 +1315,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" ht="102" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>22</v>
       </c>
@@ -1339,7 +1344,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" ht="102" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>28</v>
       </c>
@@ -1368,7 +1373,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="145.19999999999999" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" ht="140.25" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>34</v>
       </c>
@@ -1397,7 +1402,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="66" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>40</v>
       </c>
@@ -1422,8 +1427,11 @@
       <c r="I8" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="2:10" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="J8" s="11" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="89.25" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>46</v>
       </c>
@@ -1448,8 +1456,11 @@
       <c r="I9" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="2:10" ht="237.6" x14ac:dyDescent="0.25">
+      <c r="J9" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="229.5" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>49</v>
       </c>
@@ -1471,8 +1482,11 @@
       <c r="I10" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="11" spans="2:10" ht="158.4" x14ac:dyDescent="0.25">
+      <c r="J10" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="153" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
         <v>54</v>
       </c>
@@ -1495,8 +1509,11 @@
       <c r="I11" s="6" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="12" spans="2:10" ht="105.6" x14ac:dyDescent="0.25">
+      <c r="J11" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="102" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>58</v>
       </c>
@@ -1521,8 +1538,11 @@
       <c r="I12" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="13" spans="2:10" ht="145.19999999999999" x14ac:dyDescent="0.25">
+      <c r="J12" s="11" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="153" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>64</v>
       </c>
@@ -1547,8 +1567,11 @@
       <c r="I13" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="14" spans="2:10" ht="118.8" x14ac:dyDescent="0.25">
+      <c r="J13" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="114.75" x14ac:dyDescent="0.2">
       <c r="B14" s="13" t="s">
         <v>70</v>
       </c>
@@ -1573,8 +1596,11 @@
       <c r="I14" s="13" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="15" spans="2:10" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="J14" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="89.25" x14ac:dyDescent="0.2">
       <c r="B15" s="13" t="s">
         <v>75</v>
       </c>
@@ -1599,8 +1625,11 @@
       <c r="I15" s="13" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="16" spans="2:10" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="J15" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="76.5" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
         <v>81</v>
       </c>
@@ -1625,8 +1654,11 @@
       <c r="I16" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="J16" s="11" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="89.25" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
         <v>88</v>
       </c>
@@ -1651,8 +1683,11 @@
       <c r="I17" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="J17" s="11" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="89.25" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
         <v>94</v>
       </c>
@@ -1677,8 +1712,11 @@
       <c r="I18" s="10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="J18" s="11" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="89.25" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
         <v>100</v>
       </c>
@@ -1703,8 +1741,11 @@
       <c r="I19" s="10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" ht="66" x14ac:dyDescent="0.25">
+      <c r="J19" s="11" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B20" s="10" t="s">
         <v>106</v>
       </c>
@@ -1729,8 +1770,11 @@
       <c r="I20" s="10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" ht="158.4" x14ac:dyDescent="0.25">
+      <c r="J20" s="11" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="162.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="12" t="s">
         <v>113</v>
       </c>
@@ -1755,8 +1799,11 @@
       <c r="I21" s="12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" ht="211.2" x14ac:dyDescent="0.25">
+      <c r="J21" s="11" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="213" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="12" t="s">
         <v>118</v>
       </c>
@@ -1781,8 +1828,11 @@
       <c r="I22" s="12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" ht="66" x14ac:dyDescent="0.25">
+      <c r="J22" s="11" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B23" s="12" t="s">
         <v>125</v>
       </c>
@@ -1807,8 +1857,11 @@
       <c r="I23" s="12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="24" spans="2:9" ht="66" x14ac:dyDescent="0.25">
+      <c r="J23" s="11" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B24" s="11" t="s">
         <v>131</v>
       </c>
@@ -1831,8 +1884,11 @@
       <c r="I24" s="12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="J24" s="11" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="89.25" x14ac:dyDescent="0.2">
       <c r="B25" s="11" t="s">
         <v>134</v>
       </c>
@@ -1857,8 +1913,11 @@
       <c r="I25" s="12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="26" spans="2:9" ht="198" x14ac:dyDescent="0.25">
+      <c r="J25" s="11" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="204" x14ac:dyDescent="0.2">
       <c r="B26" s="11" t="s">
         <v>140</v>
       </c>
@@ -1883,8 +1942,11 @@
       <c r="I26" s="12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="27" spans="2:9" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="J26" s="11" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="89.25" x14ac:dyDescent="0.2">
       <c r="B27" s="11" t="s">
         <v>146</v>
       </c>
@@ -1909,8 +1971,11 @@
       <c r="I27" s="12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" ht="105.6" x14ac:dyDescent="0.25">
+      <c r="J27" s="11" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="102" x14ac:dyDescent="0.2">
       <c r="B28" s="11" t="s">
         <v>152</v>
       </c>
@@ -1935,8 +2000,11 @@
       <c r="I28" s="12" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="29" spans="2:9" ht="211.2" x14ac:dyDescent="0.25">
+      <c r="J28" s="11" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="204" x14ac:dyDescent="0.2">
       <c r="B29" s="11" t="s">
         <v>158</v>
       </c>
@@ -1962,7 +2030,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" ht="114.75" x14ac:dyDescent="0.2">
       <c r="B30" s="13" t="s">
         <v>163</v>
       </c>
@@ -1986,7 +2054,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" ht="102" x14ac:dyDescent="0.2">
       <c r="B31" s="11" t="s">
         <v>168</v>
       </c>
@@ -2012,7 +2080,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" ht="89.25" x14ac:dyDescent="0.2">
       <c r="B32" s="11" t="s">
         <v>173</v>
       </c>
@@ -2038,7 +2106,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" ht="127.5" x14ac:dyDescent="0.2">
       <c r="B33" s="14" t="s">
         <v>178</v>
       </c>
@@ -2064,7 +2132,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="158.4" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" ht="153" x14ac:dyDescent="0.2">
       <c r="B34" s="14" t="s">
         <v>183</v>
       </c>
@@ -2090,7 +2158,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" ht="114.75" x14ac:dyDescent="0.2">
       <c r="B35" s="12" t="s">
         <v>188</v>
       </c>
@@ -2116,7 +2184,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="36" spans="2:9" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" ht="89.25" x14ac:dyDescent="0.2">
       <c r="B36" s="12" t="s">
         <v>193</v>
       </c>
@@ -2142,7 +2210,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" ht="89.25" x14ac:dyDescent="0.2">
       <c r="B37" s="13" t="s">
         <v>198</v>
       </c>
@@ -2168,7 +2236,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="38" spans="2:9" ht="66" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B38" s="12" t="s">
         <v>203</v>
       </c>
@@ -2194,7 +2262,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="39" spans="2:9" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" ht="114.75" x14ac:dyDescent="0.2">
       <c r="B39" s="12" t="s">
         <v>208</v>
       </c>
@@ -2220,7 +2288,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="40" spans="2:9" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" ht="114.75" x14ac:dyDescent="0.2">
       <c r="B40" s="12" t="s">
         <v>213</v>
       </c>
@@ -2244,7 +2312,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="41" spans="2:9" ht="132" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" ht="127.5" x14ac:dyDescent="0.2">
       <c r="B41" s="12" t="s">
         <v>218</v>
       </c>
@@ -2268,7 +2336,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="42" spans="2:9" ht="66" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B42" s="12" t="s">
         <v>222</v>
       </c>
@@ -2294,7 +2362,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="43" spans="2:9" ht="158.4" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" ht="153" x14ac:dyDescent="0.2">
       <c r="B43" s="12" t="s">
         <v>226</v>
       </c>
@@ -2320,7 +2388,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="44" spans="2:9" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" ht="114.75" x14ac:dyDescent="0.2">
       <c r="B44" s="12" t="s">
         <v>231</v>
       </c>
@@ -2344,7 +2412,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="45" spans="2:9" ht="184.8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" ht="178.5" x14ac:dyDescent="0.2">
       <c r="B45" s="12" t="s">
         <v>237</v>
       </c>
@@ -2368,7 +2436,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="46" spans="2:9" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" ht="89.25" x14ac:dyDescent="0.2">
       <c r="B46" s="12" t="s">
         <v>242</v>
       </c>
@@ -2392,7 +2460,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="47" spans="2:9" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" ht="102" x14ac:dyDescent="0.2">
       <c r="B47" s="12" t="s">
         <v>247</v>
       </c>
@@ -2416,7 +2484,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="48" spans="2:9" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" ht="114.75" x14ac:dyDescent="0.2">
       <c r="B48" s="12" t="s">
         <v>252</v>
       </c>
@@ -2440,7 +2508,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="49" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
       <c r="D49" s="11"/>
@@ -2450,7 +2518,7 @@
       <c r="H49" s="11"/>
       <c r="I49" s="11"/>
     </row>
-    <row r="50" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
       <c r="D50" s="11"/>
@@ -2460,7 +2528,7 @@
       <c r="H50" s="11"/>
       <c r="I50" s="11"/>
     </row>
-    <row r="51" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
       <c r="D51" s="11"/>
@@ -2470,7 +2538,7 @@
       <c r="H51" s="11"/>
       <c r="I51" s="11"/>
     </row>
-    <row r="52" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
       <c r="D52" s="11"/>
@@ -2480,7 +2548,7 @@
       <c r="H52" s="11"/>
       <c r="I52" s="11"/>
     </row>
-    <row r="53" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
@@ -2490,7 +2558,7 @@
       <c r="H53" s="11"/>
       <c r="I53" s="11"/>
     </row>
-    <row r="54" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
@@ -2500,7 +2568,7 @@
       <c r="H54" s="11"/>
       <c r="I54" s="11"/>
     </row>
-    <row r="55" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>

--- a/Estado del arte.xlsx
+++ b/Estado del arte.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="262">
   <si>
     <t>Titulo del artículo</t>
   </si>
@@ -915,7 +915,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -934,6 +934,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -947,7 +953,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -991,6 +997,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1213,8 +1225,8 @@
   </sheetPr>
   <dimension ref="B2:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="79" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1572,7 +1584,7 @@
       </c>
     </row>
     <row r="14" spans="2:10" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="18" t="s">
         <v>70</v>
       </c>
       <c r="C14" s="13" t="s">
@@ -1601,7 +1613,7 @@
       </c>
     </row>
     <row r="15" spans="2:10" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="18" t="s">
         <v>75</v>
       </c>
       <c r="C15" s="16" t="s">
@@ -2029,6 +2041,9 @@
       <c r="I29" s="12" t="s">
         <v>157</v>
       </c>
+      <c r="J29" s="11" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="30" spans="2:10" ht="114.75" x14ac:dyDescent="0.2">
       <c r="B30" s="13" t="s">
@@ -2053,6 +2068,9 @@
       <c r="I30" s="14" t="s">
         <v>157</v>
       </c>
+      <c r="J30" s="11" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="31" spans="2:10" ht="102" x14ac:dyDescent="0.2">
       <c r="B31" s="11" t="s">
@@ -2079,6 +2097,9 @@
       <c r="I31" s="12" t="s">
         <v>157</v>
       </c>
+      <c r="J31" s="11" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="32" spans="2:10" ht="89.25" x14ac:dyDescent="0.2">
       <c r="B32" s="11" t="s">
@@ -2105,9 +2126,12 @@
       <c r="I32" s="12" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="33" spans="2:9" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="B33" s="14" t="s">
+      <c r="J32" s="11" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="B33" s="17" t="s">
         <v>178</v>
       </c>
       <c r="C33" s="14" t="s">
@@ -2131,8 +2155,11 @@
       <c r="I33" s="14" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="34" spans="2:9" ht="153" x14ac:dyDescent="0.2">
+      <c r="J33" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" ht="153" x14ac:dyDescent="0.2">
       <c r="B34" s="14" t="s">
         <v>183</v>
       </c>
@@ -2157,8 +2184,11 @@
       <c r="I34" s="14" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="35" spans="2:9" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="J34" s="11" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" ht="114.75" x14ac:dyDescent="0.2">
       <c r="B35" s="12" t="s">
         <v>188</v>
       </c>
@@ -2183,8 +2213,11 @@
       <c r="I35" s="12" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="36" spans="2:9" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="J35" s="11" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" ht="89.25" x14ac:dyDescent="0.2">
       <c r="B36" s="12" t="s">
         <v>193</v>
       </c>
@@ -2209,9 +2242,12 @@
       <c r="I36" s="12" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="37" spans="2:9" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="B37" s="13" t="s">
+      <c r="J36" s="11" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="B37" s="18" t="s">
         <v>198</v>
       </c>
       <c r="C37" s="14" t="s">
@@ -2235,8 +2271,11 @@
       <c r="I37" s="14" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="38" spans="2:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="J37" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B38" s="12" t="s">
         <v>203</v>
       </c>
@@ -2261,8 +2300,11 @@
       <c r="I38" s="12" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="39" spans="2:9" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="J38" s="11" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" ht="114.75" x14ac:dyDescent="0.2">
       <c r="B39" s="12" t="s">
         <v>208</v>
       </c>
@@ -2287,9 +2329,12 @@
       <c r="I39" s="12" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="40" spans="2:9" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="B40" s="12" t="s">
+      <c r="J39" s="11" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="B40" s="17" t="s">
         <v>213</v>
       </c>
       <c r="C40" s="12" t="s">
@@ -2311,8 +2356,11 @@
       <c r="I40" s="12" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="41" spans="2:9" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="J40" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" ht="127.5" x14ac:dyDescent="0.2">
       <c r="B41" s="12" t="s">
         <v>218</v>
       </c>
@@ -2335,8 +2383,11 @@
       <c r="I41" s="12" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="42" spans="2:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="J41" s="11" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B42" s="12" t="s">
         <v>222</v>
       </c>
@@ -2361,8 +2412,11 @@
       <c r="I42" s="12" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="43" spans="2:9" ht="153" x14ac:dyDescent="0.2">
+      <c r="J42" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" ht="162.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="12" t="s">
         <v>226</v>
       </c>
@@ -2387,8 +2441,11 @@
       <c r="I43" s="12" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="44" spans="2:9" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="J43" s="11" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" ht="114.75" x14ac:dyDescent="0.2">
       <c r="B44" s="12" t="s">
         <v>231</v>
       </c>
@@ -2411,8 +2468,11 @@
       <c r="I44" s="12" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="45" spans="2:9" ht="178.5" x14ac:dyDescent="0.2">
+      <c r="J44" s="11" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" ht="178.5" x14ac:dyDescent="0.2">
       <c r="B45" s="12" t="s">
         <v>237</v>
       </c>
@@ -2435,8 +2495,11 @@
       <c r="I45" s="12" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="46" spans="2:9" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="J45" s="11" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" ht="89.25" x14ac:dyDescent="0.2">
       <c r="B46" s="12" t="s">
         <v>242</v>
       </c>
@@ -2459,8 +2522,11 @@
       <c r="I46" s="12" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="47" spans="2:9" ht="102" x14ac:dyDescent="0.2">
+      <c r="J46" s="11" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" ht="102" x14ac:dyDescent="0.2">
       <c r="B47" s="12" t="s">
         <v>247</v>
       </c>
@@ -2483,8 +2549,11 @@
       <c r="I47" s="12" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="48" spans="2:9" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="J47" s="11" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" ht="114.75" x14ac:dyDescent="0.2">
       <c r="B48" s="12" t="s">
         <v>252</v>
       </c>
@@ -2506,6 +2575,9 @@
       </c>
       <c r="I48" s="12" t="s">
         <v>236</v>
+      </c>
+      <c r="J48" s="11" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="49" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
